--- a/Analyzed/try2/data_2007.xlsx
+++ b/Analyzed/try2/data_2007.xlsx
@@ -541,13 +541,13 @@
         <v>877.526</v>
       </c>
       <c r="L2">
-        <v>61.2</v>
+        <v>2142</v>
       </c>
       <c r="M2">
         <v>55.00291796729167</v>
       </c>
       <c r="N2">
-        <v>61.59000000000001</v>
+        <v>1786.11</v>
       </c>
       <c r="O2">
         <v>859.1</v>
@@ -580,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -632,13 +632,13 @@
         <v>1359.751</v>
       </c>
       <c r="L3">
-        <v>59.2</v>
+        <v>2072</v>
       </c>
       <c r="M3">
         <v>55.35711184005797</v>
       </c>
       <c r="N3">
-        <v>69.16</v>
+        <v>2005.64</v>
       </c>
       <c r="O3">
         <v>912.65</v>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1859.598</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>1855</v>
       </c>
       <c r="M4">
         <v>56.1354559988131</v>
       </c>
       <c r="N4">
-        <v>79.07000000000001</v>
+        <v>2293.03</v>
       </c>
       <c r="O4">
         <v>959.37</v>
@@ -762,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>4</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>973.2140000000001</v>
       </c>
       <c r="L5">
-        <v>50.8</v>
+        <v>1778</v>
       </c>
       <c r="M5">
         <v>54.668131246758</v>
       </c>
       <c r="N5">
-        <v>88.27000000000001</v>
+        <v>2559.83</v>
       </c>
       <c r="O5">
         <v>878.74</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>781.135</v>
       </c>
       <c r="L6">
-        <v>55.1</v>
+        <v>1928.5</v>
       </c>
       <c r="M6">
         <v>55.18647058535878</v>
       </c>
       <c r="N6">
-        <v>18.72999999999999</v>
+        <v>543.1699999999997</v>
       </c>
       <c r="O6">
         <v>946.17</v>
@@ -956,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1141.958</v>
       </c>
       <c r="L7">
-        <v>53.7</v>
+        <v>1879.5</v>
       </c>
       <c r="M7">
         <v>57.84659950021705</v>
       </c>
       <c r="N7">
-        <v>34.59</v>
+        <v>1003.11</v>
       </c>
       <c r="O7">
         <v>1006.34</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1073.637</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>1890</v>
       </c>
       <c r="M8">
         <v>67.68769984285456</v>
       </c>
       <c r="N8">
-        <v>89.30000000000001</v>
+        <v>2589.7</v>
       </c>
       <c r="O8">
         <v>1010.7</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>1923.384</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>1785</v>
       </c>
       <c r="M9">
         <v>66.53212476707643</v>
       </c>
       <c r="N9">
-        <v>66.29000000000001</v>
+        <v>1922.41</v>
       </c>
       <c r="O9">
         <v>1114.62</v>
@@ -1220,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>0</v>
